--- a/Guatemala/CENSO 2018/Cuadro A4 - Población total por lugar de nacimiento y lugar de residencia en abril del 2013.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A4 - Población total por lugar de nacimiento y lugar de residencia en abril del 2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Comunicaciones REDD Dropbox\Patricio Emanuelli\0000 DOCUMENTACIÓN REDD+ Guatemala\MRV_REDD_Guatemala\BD_GT\CENSO 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F39B19A-F748-45DD-9D8E-5632ABFEFACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF75C6F-F944-4830-B17A-5B664AACB006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A4_1" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A4_1!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">A4_2!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="370">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1109,34 +1118,37 @@
     <t>Total nacional</t>
   </si>
   <si>
-    <t>Lugar de nacimiento: En el mismo municipio</t>
-  </si>
-  <si>
-    <t>Lugar de residencia en 2013: No había nacido</t>
-  </si>
-  <si>
     <t>Código2</t>
   </si>
   <si>
-    <t>Lugar de nacimiento: En el mismo municipio3</t>
-  </si>
-  <si>
-    <t>Lugar de nacimiento: En el mismo municipio4</t>
-  </si>
-  <si>
-    <t>Lugar de nacimiento: En el mismo municipio5</t>
-  </si>
-  <si>
-    <t>Lugar de residencia en 2013: No había nacido6</t>
-  </si>
-  <si>
-    <t>Lugar de residencia en 2013: No había nacido7</t>
-  </si>
-  <si>
-    <t>Lugar de residencia en 2013: No había nacido8</t>
-  </si>
-  <si>
-    <t>Lugar de residencia en 2013: No había nacido9</t>
+    <t>LN: En el mismo municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN: En otro municipio </t>
+  </si>
+  <si>
+    <t>LN: En otro país</t>
+  </si>
+  <si>
+    <t>LN: No declarado</t>
+  </si>
+  <si>
+    <t>LR 2013: No había nacido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR 2013: </t>
+  </si>
+  <si>
+    <t>LR 2013: En el mismo municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR 2013: En otro municipio </t>
+  </si>
+  <si>
+    <t>LR 2013: En otro país</t>
+  </si>
+  <si>
+    <t>LR 2013: No declarado</t>
   </si>
 </sst>
 </file>
@@ -1391,6 +1403,22 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,22 +1436,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
@@ -1431,55 +1443,6 @@
     <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1972,6 +1935,55 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1986,23 +1998,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ECDCCB-1750-45B1-8997-74CECD69B45D}" name="Lugar_Nac_Residencia" displayName="Lugar_Nac_Residencia" ref="A4:N344" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ECDCCB-1750-45B1-8997-74CECD69B45D}" name="Lugar_Nac_Residencia" displayName="Lugar_Nac_Residencia" ref="A4:N344" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A4:N344" xr:uid="{44DBF269-BA67-4D8E-BA12-8B57EC4B5F68}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EB0EB4EE-D824-43C6-A27C-F76F9F1F1E52}" name="Código" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{621E9D8A-ECE9-47CB-9E36-8737DC91D174}" name="Departamento" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{AA12EF28-15A6-4AE3-BB77-D5A210611D20}" name="Código2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D3E21AA0-51F6-4D9B-9042-5C23B3B2EBA4}" name="Municipio" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2CA0CBE5-5A3C-4A82-AA6A-FA39B10D312E}" name="Población total" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{51E4E84E-B76A-40B7-BDAA-6542EFEA8F7B}" name="Lugar de nacimiento: En el mismo municipio" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{1EE5A827-0ED5-4E94-A17D-C8E2E274FB21}" name="Lugar de nacimiento: En el mismo municipio3" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{445499D6-9C1A-47EA-9904-34F8BBD42B45}" name="Lugar de nacimiento: En el mismo municipio4" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{6E7B32AB-D8F3-4657-A334-920B3AEB419B}" name="Lugar de nacimiento: En el mismo municipio5" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{E0FAFCCD-B4C0-4B15-A876-11BAD7A9FEA9}" name="Lugar de residencia en 2013: No había nacido" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{8C2C06C0-4EFE-46BE-B674-A8B35443A3F2}" name="Lugar de residencia en 2013: No había nacido6" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CF181202-4F52-4862-A7D4-7661219A6ABC}" name="Lugar de residencia en 2013: No había nacido7" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{AAC57D1E-912A-4347-9B05-0C6F2804B643}" name="Lugar de residencia en 2013: No había nacido8" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{79D9FF2E-C60D-4A63-8EA0-C22328203A42}" name="Lugar de residencia en 2013: No había nacido9" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EB0EB4EE-D824-43C6-A27C-F76F9F1F1E52}" name="Código" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{621E9D8A-ECE9-47CB-9E36-8737DC91D174}" name="Departamento" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AA12EF28-15A6-4AE3-BB77-D5A210611D20}" name="Código2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D3E21AA0-51F6-4D9B-9042-5C23B3B2EBA4}" name="Municipio" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{2CA0CBE5-5A3C-4A82-AA6A-FA39B10D312E}" name="Población total" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{51E4E84E-B76A-40B7-BDAA-6542EFEA8F7B}" name="LN: En el mismo municipio" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{1EE5A827-0ED5-4E94-A17D-C8E2E274FB21}" name="LN: En otro municipio " dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{445499D6-9C1A-47EA-9904-34F8BBD42B45}" name="LN: En otro país" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6E7B32AB-D8F3-4657-A334-920B3AEB419B}" name="LN: No declarado" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E0FAFCCD-B4C0-4B15-A876-11BAD7A9FEA9}" name="LR 2013: No había nacido" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8C2C06C0-4EFE-46BE-B674-A8B35443A3F2}" name="LR 2013: En el mismo municipio" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{CF181202-4F52-4862-A7D4-7661219A6ABC}" name="LR 2013: En otro municipio " dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{AAC57D1E-912A-4347-9B05-0C6F2804B643}" name="LR 2013: En otro país" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{79D9FF2E-C60D-4A63-8EA0-C22328203A42}" name="LR 2013: No declarado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2277,58 +2289,58 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="18" customWidth="1"/>
     <col min="4" max="12" width="19" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="18"/>
+    <col min="13" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-    </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
@@ -2380,7 +2392,7 @@
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
     </row>
-    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
         <v>358</v>
@@ -2416,8 +2428,8 @@
         <v>127611</v>
       </c>
     </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>1</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>34858</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>2</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>4</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>5</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>6</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>7</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>8</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>9</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>7834</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>10</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>11</v>
       </c>
@@ -2835,7 +2847,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>12</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>8612</v>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>13</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>14</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>8787</v>
       </c>
     </row>
-    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>15</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>16</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>17</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>18</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>19</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>20</v>
       </c>
@@ -3182,7 +3194,7 @@
       <c r="T29" s="34"/>
       <c r="U29" s="34"/>
     </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>21</v>
       </c>
@@ -3225,7 +3237,7 @@
       <c r="T30" s="34"/>
       <c r="U30" s="34"/>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>22</v>
       </c>
@@ -3272,7 +3284,7 @@
       <c r="T31" s="34"/>
       <c r="U31" s="34"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="38"/>
@@ -3302,7 +3314,7 @@
       <c r="AA32" s="40"/>
       <c r="AB32" s="40"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>356</v>
       </c>
@@ -3334,84 +3346,138 @@
   </sheetPr>
   <dimension ref="A1:Q346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H307" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F351" sqref="F347:O351"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="18" customWidth="1"/>
-    <col min="7" max="9" width="43.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" style="18" customWidth="1"/>
     <col min="11" max="14" width="44" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="18"/>
+    <col min="15" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
+      <c r="J1" s="5" t="str">
+        <f>+J2&amp;J3</f>
+        <v>LR 2013: No había nacido</v>
+      </c>
+      <c r="K1" s="5" t="str">
+        <f t="shared" ref="K1:N1" si="0">+K2&amp;K3</f>
+        <v>LR 2013: En el mismo municipio</v>
+      </c>
+      <c r="L1" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">LR 2013: En otro municipio </v>
+      </c>
+      <c r="M1" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LR 2013: En otro país</v>
+      </c>
+      <c r="N1" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LR 2013: No declarado</v>
+      </c>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
-    </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="J2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3455,7 +3521,7 @@
         <v>7722</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -3499,7 +3565,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3543,7 +3609,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -3587,7 +3653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -3631,7 +3697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -3675,7 +3741,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3719,7 +3785,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -3763,7 +3829,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -3807,7 +3873,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -3851,7 +3917,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -3895,7 +3961,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -3939,7 +4005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -3983,7 +4049,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>1</v>
       </c>
@@ -4027,7 +4093,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -4071,7 +4137,7 @@
         <v>7667</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>1</v>
       </c>
@@ -4115,7 +4181,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>1</v>
       </c>
@@ -4159,7 +4225,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>2</v>
       </c>
@@ -4203,7 +4269,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>2</v>
       </c>
@@ -4247,7 +4313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>2</v>
       </c>
@@ -4291,7 +4357,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -4335,7 +4401,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -4379,7 +4445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -4423,7 +4489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -4467,7 +4533,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>2</v>
       </c>
@@ -4511,7 +4577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>3</v>
       </c>
@@ -4555,7 +4621,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>3</v>
       </c>
@@ -4599,7 +4665,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>3</v>
       </c>
@@ -4643,7 +4709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>3</v>
       </c>
@@ -4687,7 +4753,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>3</v>
       </c>
@@ -4731,7 +4797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>3</v>
       </c>
@@ -4775,7 +4841,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>3</v>
       </c>
@@ -4819,7 +4885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>3</v>
       </c>
@@ -4863,7 +4929,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>3</v>
       </c>
@@ -4907,7 +4973,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>3</v>
       </c>
@@ -4951,7 +5017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>3</v>
       </c>
@@ -4995,7 +5061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>3</v>
       </c>
@@ -5039,7 +5105,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>3</v>
       </c>
@@ -5083,7 +5149,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>3</v>
       </c>
@@ -5127,7 +5193,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -5171,7 +5237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>3</v>
       </c>
@@ -5215,7 +5281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>4</v>
       </c>
@@ -5259,7 +5325,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>4</v>
       </c>
@@ -5303,7 +5369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>4</v>
       </c>
@@ -5347,7 +5413,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>4</v>
       </c>
@@ -5391,7 +5457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>4</v>
       </c>
@@ -5435,7 +5501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>4</v>
       </c>
@@ -5479,7 +5545,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>4</v>
       </c>
@@ -5523,7 +5589,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>4</v>
       </c>
@@ -5567,7 +5633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>4</v>
       </c>
@@ -5611,7 +5677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>4</v>
       </c>
@@ -5655,7 +5721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>4</v>
       </c>
@@ -5699,7 +5765,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>4</v>
       </c>
@@ -5743,7 +5809,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>4</v>
       </c>
@@ -5787,7 +5853,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>4</v>
       </c>
@@ -5831,7 +5897,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>4</v>
       </c>
@@ -5875,7 +5941,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>4</v>
       </c>
@@ -5919,7 +5985,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>5</v>
       </c>
@@ -5963,7 +6029,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>5</v>
       </c>
@@ -6007,7 +6073,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>5</v>
       </c>
@@ -6051,7 +6117,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>5</v>
       </c>
@@ -6095,7 +6161,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>5</v>
       </c>
@@ -6139,7 +6205,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>5</v>
       </c>
@@ -6183,7 +6249,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>5</v>
       </c>
@@ -6227,7 +6293,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>5</v>
       </c>
@@ -6271,7 +6337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>5</v>
       </c>
@@ -6315,7 +6381,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>5</v>
       </c>
@@ -6359,7 +6425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>5</v>
       </c>
@@ -6403,7 +6469,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>5</v>
       </c>
@@ -6447,7 +6513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>5</v>
       </c>
@@ -6491,7 +6557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>5</v>
       </c>
@@ -6535,7 +6601,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>6</v>
       </c>
@@ -6579,7 +6645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>6</v>
       </c>
@@ -6623,7 +6689,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>6</v>
       </c>
@@ -6667,7 +6733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>6</v>
       </c>
@@ -6711,7 +6777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>6</v>
       </c>
@@ -6755,7 +6821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>6</v>
       </c>
@@ -6799,7 +6865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>6</v>
       </c>
@@ -6843,7 +6909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>6</v>
       </c>
@@ -6887,7 +6953,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>6</v>
       </c>
@@ -6931,7 +6997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>6</v>
       </c>
@@ -6975,7 +7041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>6</v>
       </c>
@@ -7019,7 +7085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>6</v>
       </c>
@@ -7063,7 +7129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>6</v>
       </c>
@@ -7107,7 +7173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>6</v>
       </c>
@@ -7151,7 +7217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>7</v>
       </c>
@@ -7195,7 +7261,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>7</v>
       </c>
@@ -7239,7 +7305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>7</v>
       </c>
@@ -7283,7 +7349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>7</v>
       </c>
@@ -7327,7 +7393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>7</v>
       </c>
@@ -7371,7 +7437,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>7</v>
       </c>
@@ -7415,7 +7481,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>7</v>
       </c>
@@ -7459,7 +7525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>7</v>
       </c>
@@ -7503,7 +7569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>7</v>
       </c>
@@ -7547,7 +7613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>7</v>
       </c>
@@ -7591,7 +7657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>7</v>
       </c>
@@ -7635,7 +7701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>7</v>
       </c>
@@ -7679,7 +7745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>7</v>
       </c>
@@ -7723,7 +7789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>7</v>
       </c>
@@ -7767,7 +7833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>7</v>
       </c>
@@ -7811,7 +7877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>7</v>
       </c>
@@ -7855,7 +7921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>7</v>
       </c>
@@ -7899,7 +7965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>7</v>
       </c>
@@ -7943,7 +8009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>7</v>
       </c>
@@ -7987,7 +8053,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>8</v>
       </c>
@@ -8031,7 +8097,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>8</v>
       </c>
@@ -8075,7 +8141,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>8</v>
       </c>
@@ -8119,7 +8185,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>8</v>
       </c>
@@ -8163,7 +8229,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>8</v>
       </c>
@@ -8207,7 +8273,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>8</v>
       </c>
@@ -8251,7 +8317,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>8</v>
       </c>
@@ -8295,7 +8361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>8</v>
       </c>
@@ -8339,7 +8405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>9</v>
       </c>
@@ -8383,7 +8449,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>9</v>
       </c>
@@ -8427,7 +8493,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>9</v>
       </c>
@@ -8471,7 +8537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>9</v>
       </c>
@@ -8515,7 +8581,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>9</v>
       </c>
@@ -8559,7 +8625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>9</v>
       </c>
@@ -8603,7 +8669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>9</v>
       </c>
@@ -8647,7 +8713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>9</v>
       </c>
@@ -8691,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>9</v>
       </c>
@@ -8735,7 +8801,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>9</v>
       </c>
@@ -8779,7 +8845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>9</v>
       </c>
@@ -8823,7 +8889,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>9</v>
       </c>
@@ -8867,7 +8933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>9</v>
       </c>
@@ -8911,7 +8977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>9</v>
       </c>
@@ -8955,7 +9021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>9</v>
       </c>
@@ -8999,7 +9065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>9</v>
       </c>
@@ -9043,7 +9109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>9</v>
       </c>
@@ -9087,7 +9153,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>9</v>
       </c>
@@ -9131,7 +9197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>9</v>
       </c>
@@ -9175,7 +9241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>9</v>
       </c>
@@ -9219,7 +9285,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>9</v>
       </c>
@@ -9263,7 +9329,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>9</v>
       </c>
@@ -9307,7 +9373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>9</v>
       </c>
@@ -9351,7 +9417,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>9</v>
       </c>
@@ -9395,7 +9461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>10</v>
       </c>
@@ -9439,7 +9505,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>10</v>
       </c>
@@ -9483,7 +9549,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>10</v>
       </c>
@@ -9527,7 +9593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>10</v>
       </c>
@@ -9571,7 +9637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>10</v>
       </c>
@@ -9615,7 +9681,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>10</v>
       </c>
@@ -9659,7 +9725,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>10</v>
       </c>
@@ -9703,7 +9769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>10</v>
       </c>
@@ -9747,7 +9813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>10</v>
       </c>
@@ -9791,7 +9857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>10</v>
       </c>
@@ -9835,7 +9901,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>10</v>
       </c>
@@ -9879,7 +9945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>10</v>
       </c>
@@ -9923,7 +9989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>10</v>
       </c>
@@ -9967,7 +10033,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>10</v>
       </c>
@@ -10011,7 +10077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>10</v>
       </c>
@@ -10055,7 +10121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>10</v>
       </c>
@@ -10099,7 +10165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>10</v>
       </c>
@@ -10143,7 +10209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>10</v>
       </c>
@@ -10187,7 +10253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>10</v>
       </c>
@@ -10231,7 +10297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>10</v>
       </c>
@@ -10275,7 +10341,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>10</v>
       </c>
@@ -10319,7 +10385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>11</v>
       </c>
@@ -10363,7 +10429,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>11</v>
       </c>
@@ -10407,7 +10473,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>11</v>
       </c>
@@ -10451,7 +10517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>11</v>
       </c>
@@ -10495,7 +10561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>11</v>
       </c>
@@ -10539,7 +10605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>11</v>
       </c>
@@ -10583,7 +10649,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>11</v>
       </c>
@@ -10627,7 +10693,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>11</v>
       </c>
@@ -10671,7 +10737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>11</v>
       </c>
@@ -10715,7 +10781,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>12</v>
       </c>
@@ -10759,7 +10825,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>12</v>
       </c>
@@ -10803,7 +10869,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>12</v>
       </c>
@@ -10847,7 +10913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>12</v>
       </c>
@@ -10891,7 +10957,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>12</v>
       </c>
@@ -10935,7 +11001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>12</v>
       </c>
@@ -10979,7 +11045,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>12</v>
       </c>
@@ -11023,7 +11089,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>12</v>
       </c>
@@ -11067,7 +11133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>12</v>
       </c>
@@ -11111,7 +11177,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>12</v>
       </c>
@@ -11155,7 +11221,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>12</v>
       </c>
@@ -11199,7 +11265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>12</v>
       </c>
@@ -11243,7 +11309,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>12</v>
       </c>
@@ -11287,7 +11353,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>12</v>
       </c>
@@ -11331,7 +11397,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>12</v>
       </c>
@@ -11375,7 +11441,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>12</v>
       </c>
@@ -11419,7 +11485,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>12</v>
       </c>
@@ -11463,7 +11529,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>12</v>
       </c>
@@ -11507,7 +11573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>12</v>
       </c>
@@ -11551,7 +11617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>12</v>
       </c>
@@ -11595,7 +11661,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>12</v>
       </c>
@@ -11639,7 +11705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>12</v>
       </c>
@@ -11683,7 +11749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>12</v>
       </c>
@@ -11727,7 +11793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>12</v>
       </c>
@@ -11771,7 +11837,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>12</v>
       </c>
@@ -11815,7 +11881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="13">
         <v>12</v>
       </c>
@@ -11859,7 +11925,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>12</v>
       </c>
@@ -11903,7 +11969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>12</v>
       </c>
@@ -11947,7 +12013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>12</v>
       </c>
@@ -11991,7 +12057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="13">
         <v>12</v>
       </c>
@@ -12035,7 +12101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>13</v>
       </c>
@@ -12079,7 +12145,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>13</v>
       </c>
@@ -12123,7 +12189,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>13</v>
       </c>
@@ -12167,7 +12233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>13</v>
       </c>
@@ -12211,7 +12277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="13">
         <v>13</v>
       </c>
@@ -12255,7 +12321,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="13">
         <v>13</v>
       </c>
@@ -12299,7 +12365,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="13">
         <v>13</v>
       </c>
@@ -12343,7 +12409,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="13">
         <v>13</v>
       </c>
@@ -12387,7 +12453,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="13">
         <v>13</v>
       </c>
@@ -12431,7 +12497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="13">
         <v>13</v>
       </c>
@@ -12475,7 +12541,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="13">
         <v>13</v>
       </c>
@@ -12519,7 +12585,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="13">
         <v>13</v>
       </c>
@@ -12563,7 +12629,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="13">
         <v>13</v>
       </c>
@@ -12607,7 +12673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="13">
         <v>13</v>
       </c>
@@ -12651,7 +12717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="13">
         <v>13</v>
       </c>
@@ -12695,7 +12761,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="13">
         <v>13</v>
       </c>
@@ -12739,7 +12805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="13">
         <v>13</v>
       </c>
@@ -12783,7 +12849,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="13">
         <v>13</v>
       </c>
@@ -12827,7 +12893,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="13">
         <v>13</v>
       </c>
@@ -12871,7 +12937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="13">
         <v>13</v>
       </c>
@@ -12915,7 +12981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="13">
         <v>13</v>
       </c>
@@ -12959,7 +13025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="13">
         <v>13</v>
       </c>
@@ -13003,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="13">
         <v>13</v>
       </c>
@@ -13047,7 +13113,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="13">
         <v>13</v>
       </c>
@@ -13091,7 +13157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="13">
         <v>13</v>
       </c>
@@ -13135,7 +13201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="13">
         <v>13</v>
       </c>
@@ -13179,7 +13245,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="13">
         <v>13</v>
       </c>
@@ -13223,7 +13289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="13">
         <v>13</v>
       </c>
@@ -13267,7 +13333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="13">
         <v>13</v>
       </c>
@@ -13311,7 +13377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="13">
         <v>13</v>
       </c>
@@ -13355,7 +13421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="13">
         <v>13</v>
       </c>
@@ -13399,7 +13465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="13">
         <v>13</v>
       </c>
@@ -13443,7 +13509,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="13">
         <v>13</v>
       </c>
@@ -13487,7 +13553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="13">
         <v>14</v>
       </c>
@@ -13531,7 +13597,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="13">
         <v>14</v>
       </c>
@@ -13575,7 +13641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="13">
         <v>14</v>
       </c>
@@ -13619,7 +13685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="13">
         <v>14</v>
       </c>
@@ -13663,7 +13729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="13">
         <v>14</v>
       </c>
@@ -13707,7 +13773,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="13">
         <v>14</v>
       </c>
@@ -13751,7 +13817,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="13">
         <v>14</v>
       </c>
@@ -13795,7 +13861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="13">
         <v>14</v>
       </c>
@@ -13839,7 +13905,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="13">
         <v>14</v>
       </c>
@@ -13883,7 +13949,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="13">
         <v>14</v>
       </c>
@@ -13927,7 +13993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="13">
         <v>14</v>
       </c>
@@ -13971,7 +14037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="13">
         <v>14</v>
       </c>
@@ -14015,7 +14081,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="13">
         <v>14</v>
       </c>
@@ -14059,7 +14125,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="13">
         <v>14</v>
       </c>
@@ -14103,7 +14169,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="13">
         <v>14</v>
       </c>
@@ -14147,7 +14213,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="13">
         <v>14</v>
       </c>
@@ -14191,7 +14257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="13">
         <v>14</v>
       </c>
@@ -14235,7 +14301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="13">
         <v>14</v>
       </c>
@@ -14279,7 +14345,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="13">
         <v>14</v>
       </c>
@@ -14323,7 +14389,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="13">
         <v>14</v>
       </c>
@@ -14367,7 +14433,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="13">
         <v>14</v>
       </c>
@@ -14411,7 +14477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="13">
         <v>15</v>
       </c>
@@ -14455,7 +14521,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="13">
         <v>15</v>
       </c>
@@ -14499,7 +14565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="13">
         <v>15</v>
       </c>
@@ -14543,7 +14609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="13">
         <v>15</v>
       </c>
@@ -14587,7 +14653,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="13">
         <v>15</v>
       </c>
@@ -14631,7 +14697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="13">
         <v>15</v>
       </c>
@@ -14675,7 +14741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="13">
         <v>15</v>
       </c>
@@ -14719,7 +14785,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="13">
         <v>15</v>
       </c>
@@ -14763,7 +14829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="13">
         <v>16</v>
       </c>
@@ -14807,7 +14873,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="13">
         <v>16</v>
       </c>
@@ -14851,7 +14917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="13">
         <v>16</v>
       </c>
@@ -14895,7 +14961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="13">
         <v>16</v>
       </c>
@@ -14939,7 +15005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="13">
         <v>16</v>
       </c>
@@ -14983,7 +15049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="13">
         <v>16</v>
       </c>
@@ -15027,7 +15093,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="13">
         <v>16</v>
       </c>
@@ -15071,7 +15137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="13">
         <v>16</v>
       </c>
@@ -15115,7 +15181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="13">
         <v>16</v>
       </c>
@@ -15159,7 +15225,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="13">
         <v>16</v>
       </c>
@@ -15203,7 +15269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="13">
         <v>16</v>
       </c>
@@ -15247,7 +15313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="13">
         <v>16</v>
       </c>
@@ -15291,7 +15357,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="13">
         <v>16</v>
       </c>
@@ -15335,7 +15401,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="13">
         <v>16</v>
       </c>
@@ -15379,7 +15445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="13">
         <v>16</v>
       </c>
@@ -15423,7 +15489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="13">
         <v>16</v>
       </c>
@@ -15467,7 +15533,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="13">
         <v>16</v>
       </c>
@@ -15511,7 +15577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="13">
         <v>17</v>
       </c>
@@ -15555,7 +15621,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="13">
         <v>17</v>
       </c>
@@ -15599,7 +15665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="13">
         <v>17</v>
       </c>
@@ -15643,7 +15709,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="13">
         <v>17</v>
       </c>
@@ -15687,7 +15753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="13">
         <v>17</v>
       </c>
@@ -15731,7 +15797,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="13">
         <v>17</v>
       </c>
@@ -15775,7 +15841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="13">
         <v>17</v>
       </c>
@@ -15819,7 +15885,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="13">
         <v>17</v>
       </c>
@@ -15863,7 +15929,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="13">
         <v>17</v>
       </c>
@@ -15907,7 +15973,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="13">
         <v>17</v>
       </c>
@@ -15951,7 +16017,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="13">
         <v>17</v>
       </c>
@@ -15995,7 +16061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="13">
         <v>17</v>
       </c>
@@ -16039,7 +16105,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="13">
         <v>17</v>
       </c>
@@ -16083,7 +16149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="13">
         <v>17</v>
       </c>
@@ -16127,7 +16193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="13">
         <v>18</v>
       </c>
@@ -16171,7 +16237,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="13">
         <v>18</v>
       </c>
@@ -16215,7 +16281,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="13">
         <v>18</v>
       </c>
@@ -16259,7 +16325,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="13">
         <v>18</v>
       </c>
@@ -16303,7 +16369,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="13">
         <v>18</v>
       </c>
@@ -16347,7 +16413,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="13">
         <v>19</v>
       </c>
@@ -16391,7 +16457,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="13">
         <v>19</v>
       </c>
@@ -16435,7 +16501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="13">
         <v>19</v>
       </c>
@@ -16479,7 +16545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="13">
         <v>19</v>
       </c>
@@ -16523,7 +16589,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="13">
         <v>19</v>
       </c>
@@ -16567,7 +16633,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="13">
         <v>19</v>
       </c>
@@ -16611,7 +16677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="13">
         <v>19</v>
       </c>
@@ -16655,7 +16721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="13">
         <v>19</v>
       </c>
@@ -16699,7 +16765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="13">
         <v>19</v>
       </c>
@@ -16743,7 +16809,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="13">
         <v>19</v>
       </c>
@@ -16787,7 +16853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="13">
         <v>19</v>
       </c>
@@ -16831,7 +16897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="13">
         <v>20</v>
       </c>
@@ -16875,7 +16941,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="13">
         <v>20</v>
       </c>
@@ -16919,7 +16985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="13">
         <v>20</v>
       </c>
@@ -16963,7 +17029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="13">
         <v>20</v>
       </c>
@@ -17007,7 +17073,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="13">
         <v>20</v>
       </c>
@@ -17051,7 +17117,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="13">
         <v>20</v>
       </c>
@@ -17095,7 +17161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="13">
         <v>20</v>
       </c>
@@ -17139,7 +17205,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="13">
         <v>20</v>
       </c>
@@ -17183,7 +17249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" s="13">
         <v>20</v>
       </c>
@@ -17227,7 +17293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="13">
         <v>20</v>
       </c>
@@ -17271,7 +17337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" s="13">
         <v>20</v>
       </c>
@@ -17315,7 +17381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" s="13">
         <v>21</v>
       </c>
@@ -17359,7 +17425,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" s="13">
         <v>21</v>
       </c>
@@ -17403,7 +17469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="13">
         <v>21</v>
       </c>
@@ -17447,7 +17513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="13">
         <v>21</v>
       </c>
@@ -17491,7 +17557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="13">
         <v>21</v>
       </c>
@@ -17535,7 +17601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" s="13">
         <v>21</v>
       </c>
@@ -17579,7 +17645,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" s="13">
         <v>21</v>
       </c>
@@ -17623,7 +17689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="13">
         <v>22</v>
       </c>
@@ -17667,7 +17733,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" s="13">
         <v>22</v>
       </c>
@@ -17711,7 +17777,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="13">
         <v>22</v>
       </c>
@@ -17755,7 +17821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="13">
         <v>22</v>
       </c>
@@ -17799,7 +17865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="13">
         <v>22</v>
       </c>
@@ -17843,7 +17909,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="13">
         <v>22</v>
       </c>
@@ -17887,7 +17953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="13">
         <v>22</v>
       </c>
@@ -17931,7 +17997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="13">
         <v>22</v>
       </c>
@@ -17975,7 +18041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="13">
         <v>22</v>
       </c>
@@ -18019,7 +18085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="13">
         <v>22</v>
       </c>
@@ -18063,7 +18129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="13">
         <v>22</v>
       </c>
@@ -18107,7 +18173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" s="13">
         <v>22</v>
       </c>
@@ -18151,7 +18217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" s="13">
         <v>22</v>
       </c>
@@ -18195,7 +18261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" s="13">
         <v>22</v>
       </c>
@@ -18239,7 +18305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" s="13">
         <v>22</v>
       </c>
@@ -18283,7 +18349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" s="13">
         <v>22</v>
       </c>
@@ -18327,7 +18393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>22</v>
       </c>
@@ -18371,17 +18437,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A345" s="50"/>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A345" s="44"/>
       <c r="B345" s="14"/>
       <c r="D345" s="16"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A346" s="50" t="s">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A346" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="B346" s="51"/>
-      <c r="C346" s="52"/>
+      <c r="B346" s="45"/>
+      <c r="C346" s="46"/>
       <c r="D346" s="21"/>
       <c r="E346" s="22"/>
       <c r="F346" s="22"/>
